--- a/biology/Zoologie/Électrocyte/Électrocyte.xlsx
+++ b/biology/Zoologie/Électrocyte/Électrocyte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89lectrocyte</t>
+          <t>Électrocyte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les électrocytes, ou cellules électriques, sont des cellules hautement spécialisées, capable de produire des décharges électriques. Elles sont présentes chez les poissons électriques. Ce sont des myocytes modifiés recevant des projections cholinergiques de neurones électromoteurs.
 La jonction entre la terminaison cholinergique et les électrocytes ressemblent beaucoup à la jonction neuromusculaire, ce qui lui a valu d'être un modèle apprécié dans la recherche en neuroscience pour la description de la transmission synaptique.
